--- a/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-DE767565.xlsx
+++ b/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-DE767565.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -22,304 +22,193 @@
     <x:t>Item</x:t>
   </x:si>
   <x:si>
+    <x:t>Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Currency</x:t>
+  </x:si>
+  <x:si>
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>Amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Currency</x:t>
-  </x:si>
-  <x:si>
-    <x:t>456364</x:t>
+    <x:t>902771</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1639.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Professional Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>280027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56005.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>414187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>279520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>775219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10484.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62905.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>875257</x:t>
   </x:si>
   <x:si>
     <x:t>Concierge Services</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-01-16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>215405</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43081</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258486</x:t>
+    <x:t>164433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32886.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15205.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91231.2</x:t>
   </x:si>
   <x:si>
     <x:t>RON</x:t>
   </x:si>
   <x:si>
-    <x:t>345411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>233225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46645</x:t>
-  </x:si>
-  <x:si>
-    <x:t>279870</x:t>
-  </x:si>
-  <x:si>
-    <x:t>513195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>805484</x:t>
+    <x:t>2017-09-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188702</x:t>
   </x:si>
   <x:si>
     <x:t>Waste management services</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-04-18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250613</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50122.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>698371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>238762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47752.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>286514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>780869</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210955</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>487780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Professional Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66503</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13300.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79803.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>788352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40710</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>994853</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>173648</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34729.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>428136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16622.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99733.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>273757</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>745070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19359</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3871.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23230.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>999714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116445</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139734</x:t>
-  </x:si>
-  <x:si>
-    <x:t>724855</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>299110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59822</x:t>
-  </x:si>
-  <x:si>
-    <x:t>358932</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>224761</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44952.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>269713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>905056</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41647.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>249887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>348912</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28227.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169363</x:t>
+    <x:t>280867</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56173.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>337040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>644961</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23232.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139396</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>696272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47025.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>879673</x:t>
+  </x:si>
+  <x:si>
+    <x:t>249650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-11-15</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -670,7 +559,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G18"/>
+  <x:dimension ref="A1:G11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -742,15 +631,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>22</x:v>
@@ -762,56 +651,56 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
@@ -854,240 +743,79 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
         <x:v>49</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="s">
+      <x:c r="F9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="E10" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="F10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
         <x:v>59</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="E11" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
+      <x:c r="F11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7">
-      <x:c r="A12" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7">
-      <x:c r="A13" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7">
-      <x:c r="A14" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:7">
-      <x:c r="A15" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:7">
-      <x:c r="A16" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:7">
-      <x:c r="A17" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:7">
-      <x:c r="A18" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
